--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.157317599593801</v>
+        <v>0.1790343333333333</v>
       </c>
       <c r="H2">
-        <v>0.157317599593801</v>
+        <v>0.537103</v>
       </c>
       <c r="I2">
-        <v>0.004893467376962752</v>
+        <v>0.00485560647444994</v>
       </c>
       <c r="J2">
-        <v>0.004893467376962752</v>
+        <v>0.00522711558998419</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N2">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O2">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P2">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q2">
-        <v>0.30449676316638</v>
+        <v>0.8536489498739999</v>
       </c>
       <c r="R2">
-        <v>0.30449676316638</v>
+        <v>7.682840548865999</v>
       </c>
       <c r="S2">
-        <v>0.001555109330606239</v>
+        <v>0.002531518676896542</v>
       </c>
       <c r="T2">
-        <v>0.001555109330606239</v>
+        <v>0.002802503744100507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.157317599593801</v>
+        <v>0.1790343333333333</v>
       </c>
       <c r="H3">
-        <v>0.157317599593801</v>
+        <v>0.537103</v>
       </c>
       <c r="I3">
-        <v>0.004893467376962752</v>
+        <v>0.00485560647444994</v>
       </c>
       <c r="J3">
-        <v>0.004893467376962752</v>
+        <v>0.00522711558998419</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N3">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P3">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q3">
-        <v>0.4627351802722896</v>
+        <v>0.5519363525853334</v>
       </c>
       <c r="R3">
-        <v>0.4627351802722896</v>
+        <v>4.967427173268001</v>
       </c>
       <c r="S3">
-        <v>0.00236325597999214</v>
+        <v>0.001636781940906928</v>
       </c>
       <c r="T3">
-        <v>0.00236325597999214</v>
+        <v>0.001811990391195216</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.157317599593801</v>
+        <v>0.1790343333333333</v>
       </c>
       <c r="H4">
-        <v>0.157317599593801</v>
+        <v>0.537103</v>
       </c>
       <c r="I4">
-        <v>0.004893467376962752</v>
+        <v>0.00485560647444994</v>
       </c>
       <c r="J4">
-        <v>0.004893467376962752</v>
+        <v>0.00522711558998419</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N4">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O4">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P4">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q4">
-        <v>0.02639294661981382</v>
+        <v>0.03246817474055555</v>
       </c>
       <c r="R4">
-        <v>0.02639294661981382</v>
+        <v>0.292213572665</v>
       </c>
       <c r="S4">
-        <v>0.0001347926234875544</v>
+        <v>9.628523618823507E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001347926234875544</v>
+        <v>0.0001065920379658957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.157317599593801</v>
+        <v>0.1790343333333333</v>
       </c>
       <c r="H5">
-        <v>0.157317599593801</v>
+        <v>0.537103</v>
       </c>
       <c r="I5">
-        <v>0.004893467376962752</v>
+        <v>0.00485560647444994</v>
       </c>
       <c r="J5">
-        <v>0.004893467376962752</v>
+        <v>0.00522711558998419</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N5">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O5">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P5">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q5">
-        <v>0.04834842832250973</v>
+        <v>0.06381905588488888</v>
       </c>
       <c r="R5">
-        <v>0.04834842832250973</v>
+        <v>0.574371502964</v>
       </c>
       <c r="S5">
-        <v>0.0002469224671639577</v>
+        <v>0.000189257108485106</v>
       </c>
       <c r="T5">
-        <v>0.0002469224671639577</v>
+        <v>0.000209516034769046</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.157317599593801</v>
+        <v>0.1790343333333333</v>
       </c>
       <c r="H6">
-        <v>0.157317599593801</v>
+        <v>0.537103</v>
       </c>
       <c r="I6">
-        <v>0.004893467376962752</v>
+        <v>0.00485560647444994</v>
       </c>
       <c r="J6">
-        <v>0.004893467376962752</v>
+        <v>0.00522711558998419</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N6">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O6">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P6">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q6">
-        <v>0.1161875952086378</v>
+        <v>0.1354779655483333</v>
       </c>
       <c r="R6">
-        <v>0.1161875952086378</v>
+        <v>0.81286779329</v>
       </c>
       <c r="S6">
-        <v>0.0005933869757128609</v>
+        <v>0.0004017635119731294</v>
       </c>
       <c r="T6">
-        <v>0.0005933869757128609</v>
+        <v>0.0002965133819535261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.1302083663981</v>
+        <v>28.61718033333333</v>
       </c>
       <c r="H7">
-        <v>24.1302083663981</v>
+        <v>85.851541</v>
       </c>
       <c r="I7">
-        <v>0.75058599765805</v>
+        <v>0.7761291564580808</v>
       </c>
       <c r="J7">
-        <v>0.75058599765805</v>
+        <v>0.8355118634326505</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N7">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O7">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P7">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q7">
-        <v>46.70532960755936</v>
+        <v>136.448833500678</v>
       </c>
       <c r="R7">
-        <v>46.70532960755936</v>
+        <v>1228.039501506102</v>
       </c>
       <c r="S7">
-        <v>0.238530922649147</v>
+        <v>0.4046426467211118</v>
       </c>
       <c r="T7">
-        <v>0.238530922649147</v>
+        <v>0.4479574031224889</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.1302083663981</v>
+        <v>28.61718033333333</v>
       </c>
       <c r="H8">
-        <v>24.1302083663981</v>
+        <v>85.851541</v>
       </c>
       <c r="I8">
-        <v>0.75058599765805</v>
+        <v>0.7761291564580808</v>
       </c>
       <c r="J8">
-        <v>0.75058599765805</v>
+        <v>0.8355118634326505</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N8">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P8">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q8">
-        <v>70.97677785107217</v>
+        <v>88.22253162497735</v>
       </c>
       <c r="R8">
-        <v>70.97677785107217</v>
+        <v>794.002784624796</v>
       </c>
       <c r="S8">
-        <v>0.3624887448549255</v>
+        <v>0.261626265181596</v>
       </c>
       <c r="T8">
-        <v>0.3624887448549255</v>
+        <v>0.2896319092637764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.1302083663981</v>
+        <v>28.61718033333333</v>
       </c>
       <c r="H9">
-        <v>24.1302083663981</v>
+        <v>85.851541</v>
       </c>
       <c r="I9">
-        <v>0.75058599765805</v>
+        <v>0.7761291564580808</v>
       </c>
       <c r="J9">
-        <v>0.75058599765805</v>
+        <v>0.8355118634326505</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N9">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O9">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P9">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q9">
-        <v>4.048290229343324</v>
+        <v>5.189773348750555</v>
       </c>
       <c r="R9">
-        <v>4.048290229343324</v>
+        <v>46.70796013875499</v>
       </c>
       <c r="S9">
-        <v>0.02067520798312702</v>
+        <v>0.01539041096830393</v>
       </c>
       <c r="T9">
-        <v>0.02067520798312702</v>
+        <v>0.01703786930570608</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.1302083663981</v>
+        <v>28.61718033333333</v>
       </c>
       <c r="H10">
-        <v>24.1302083663981</v>
+        <v>85.851541</v>
       </c>
       <c r="I10">
-        <v>0.75058599765805</v>
+        <v>0.7761291564580808</v>
       </c>
       <c r="J10">
-        <v>0.75058599765805</v>
+        <v>0.8355118634326505</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N10">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O10">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P10">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q10">
-        <v>7.415938538487556</v>
+        <v>10.20095641410089</v>
       </c>
       <c r="R10">
-        <v>7.415938538487556</v>
+        <v>91.80860772690799</v>
       </c>
       <c r="S10">
-        <v>0.03787427851935121</v>
+        <v>0.03025120769880363</v>
       </c>
       <c r="T10">
-        <v>0.03787427851935121</v>
+        <v>0.033489432099862</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.1302083663981</v>
+        <v>28.61718033333333</v>
       </c>
       <c r="H11">
-        <v>24.1302083663981</v>
+        <v>85.851541</v>
       </c>
       <c r="I11">
-        <v>0.75058599765805</v>
+        <v>0.7761291564580808</v>
       </c>
       <c r="J11">
-        <v>0.75058599765805</v>
+        <v>0.8355118634326505</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N11">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O11">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P11">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q11">
-        <v>17.82147000217529</v>
+        <v>21.65504961593833</v>
       </c>
       <c r="R11">
-        <v>17.82147000217529</v>
+        <v>129.93029769563</v>
       </c>
       <c r="S11">
-        <v>0.09101684365149922</v>
+        <v>0.06421862588826559</v>
       </c>
       <c r="T11">
-        <v>0.09101684365149922</v>
+        <v>0.04739524964081713</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>7.86096660073365</v>
+        <v>0.184753</v>
       </c>
       <c r="H12">
-        <v>7.86096660073365</v>
+        <v>0.5542590000000001</v>
       </c>
       <c r="I12">
-        <v>0.2445205349649873</v>
+        <v>0.005010702954409397</v>
       </c>
       <c r="J12">
-        <v>0.2445205349649873</v>
+        <v>0.005394078714490606</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N12">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O12">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P12">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q12">
-        <v>15.21532804633981</v>
+        <v>0.8809159757220001</v>
       </c>
       <c r="R12">
-        <v>15.21532804633981</v>
+        <v>7.928243781498001</v>
       </c>
       <c r="S12">
-        <v>0.07770689700293784</v>
+        <v>0.002612379767638611</v>
       </c>
       <c r="T12">
-        <v>0.07770689700293784</v>
+        <v>0.002892020567193635</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>7.86096660073365</v>
+        <v>0.184753</v>
       </c>
       <c r="H13">
-        <v>7.86096660073365</v>
+        <v>0.5542590000000001</v>
       </c>
       <c r="I13">
-        <v>0.2445205349649873</v>
+        <v>0.005010702954409397</v>
       </c>
       <c r="J13">
-        <v>0.2445205349649873</v>
+        <v>0.005394078714490606</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N13">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P13">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q13">
-        <v>23.12230676349748</v>
+        <v>0.5695661555560002</v>
       </c>
       <c r="R13">
-        <v>23.12230676349748</v>
+        <v>5.126095400004001</v>
       </c>
       <c r="S13">
-        <v>0.1180889892527594</v>
+        <v>0.001689063590754722</v>
       </c>
       <c r="T13">
-        <v>0.1180889892527594</v>
+        <v>0.001869868502379374</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>7.86096660073365</v>
+        <v>0.184753</v>
       </c>
       <c r="H14">
-        <v>7.86096660073365</v>
+        <v>0.5542590000000001</v>
       </c>
       <c r="I14">
-        <v>0.2445205349649873</v>
+        <v>0.005010702954409397</v>
       </c>
       <c r="J14">
-        <v>0.2445205349649873</v>
+        <v>0.005394078714490606</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N14">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O14">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P14">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q14">
-        <v>1.318823020494891</v>
+        <v>0.03350526447166667</v>
       </c>
       <c r="R14">
-        <v>1.318823020494891</v>
+        <v>0.301547380245</v>
       </c>
       <c r="S14">
-        <v>0.00673542130058463</v>
+        <v>9.936075338334545E-05</v>
       </c>
       <c r="T14">
-        <v>0.00673542130058463</v>
+        <v>0.0001099967722595841</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>7.86096660073365</v>
+        <v>0.184753</v>
       </c>
       <c r="H15">
-        <v>7.86096660073365</v>
+        <v>0.5542590000000001</v>
       </c>
       <c r="I15">
-        <v>0.2445205349649873</v>
+        <v>0.005010702954409397</v>
       </c>
       <c r="J15">
-        <v>0.2445205349649873</v>
+        <v>0.005394078714490606</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N15">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O15">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P15">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q15">
-        <v>2.415911387044772</v>
+        <v>0.06585754705466668</v>
       </c>
       <c r="R15">
-        <v>2.415911387044772</v>
+        <v>0.592717923492</v>
       </c>
       <c r="S15">
-        <v>0.01233841141969159</v>
+        <v>0.0001953023082943986</v>
       </c>
       <c r="T15">
-        <v>0.01233841141969159</v>
+        <v>0.0002162083397692001</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.184753</v>
+      </c>
+      <c r="H16">
+        <v>0.5542590000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.005010702954409397</v>
+      </c>
+      <c r="J16">
+        <v>0.005394078714490606</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.756715</v>
+      </c>
+      <c r="N16">
+        <v>1.51343</v>
+      </c>
+      <c r="O16">
+        <v>0.08274218969086504</v>
+      </c>
+      <c r="P16">
+        <v>0.05672600439938289</v>
+      </c>
+      <c r="Q16">
+        <v>0.139805366395</v>
+      </c>
+      <c r="R16">
+        <v>0.8388321983700001</v>
+      </c>
+      <c r="S16">
+        <v>0.0004145965343383202</v>
+      </c>
+      <c r="T16">
+        <v>0.0003059845328888117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.02891466666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.086744</v>
+      </c>
+      <c r="I17">
+        <v>0.0007841973104221829</v>
+      </c>
+      <c r="J17">
+        <v>0.0008441973229298452</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.768073999999999</v>
+      </c>
+      <c r="N17">
+        <v>14.304222</v>
+      </c>
+      <c r="O17">
+        <v>0.5213599352042468</v>
+      </c>
+      <c r="P17">
+        <v>0.5361472681932758</v>
+      </c>
+      <c r="Q17">
+        <v>0.137867270352</v>
+      </c>
+      <c r="R17">
+        <v>1.240805433168</v>
+      </c>
+      <c r="S17">
+        <v>0.0004088490589490539</v>
+      </c>
+      <c r="T17">
+        <v>0.0004526140885049132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.02891466666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.086744</v>
+      </c>
+      <c r="I18">
+        <v>0.0007841973104221829</v>
+      </c>
+      <c r="J18">
+        <v>0.0008441973229298452</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.082852</v>
+      </c>
+      <c r="N18">
+        <v>9.248556000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.3370911439219029</v>
+      </c>
+      <c r="P18">
+        <v>0.3466520607784562</v>
+      </c>
+      <c r="Q18">
+        <v>0.08913963796266668</v>
+      </c>
+      <c r="R18">
+        <v>0.8022567416640001</v>
+      </c>
+      <c r="S18">
+        <v>0.0002643459684306932</v>
+      </c>
+      <c r="T18">
+        <v>0.0002926427416972867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.02891466666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.086744</v>
+      </c>
+      <c r="I19">
+        <v>0.0007841973104221829</v>
+      </c>
+      <c r="J19">
+        <v>0.0008441973229298452</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1813516666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.544055</v>
+      </c>
+      <c r="O19">
+        <v>0.01982970339439268</v>
+      </c>
+      <c r="P19">
+        <v>0.02039213331538707</v>
+      </c>
+      <c r="Q19">
+        <v>0.005243722991111111</v>
+      </c>
+      <c r="R19">
+        <v>0.04719350692</v>
+      </c>
+      <c r="S19">
+        <v>1.555040006835237E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.721498435367827E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.02891466666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.086744</v>
+      </c>
+      <c r="I20">
+        <v>0.0007841973104221829</v>
+      </c>
+      <c r="J20">
+        <v>0.0008441973229298452</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3564626666666666</v>
+      </c>
+      <c r="N20">
+        <v>1.069388</v>
+      </c>
+      <c r="O20">
+        <v>0.0389770277885927</v>
+      </c>
+      <c r="P20">
+        <v>0.04008253331349799</v>
+      </c>
+      <c r="Q20">
+        <v>0.01030699918577778</v>
+      </c>
+      <c r="R20">
+        <v>0.092762992672</v>
+      </c>
+      <c r="S20">
+        <v>3.056568036006508E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.383756731950134E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.02891466666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.086744</v>
+      </c>
+      <c r="I21">
+        <v>0.0007841973104221829</v>
+      </c>
+      <c r="J21">
+        <v>0.0008441973229298452</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.756715</v>
+      </c>
+      <c r="N21">
+        <v>1.51343</v>
+      </c>
+      <c r="O21">
+        <v>0.08274218969086504</v>
+      </c>
+      <c r="P21">
+        <v>0.05672600439938289</v>
+      </c>
+      <c r="Q21">
+        <v>0.02188016198666667</v>
+      </c>
+      <c r="R21">
+        <v>0.13128097192</v>
+      </c>
+      <c r="S21">
+        <v>6.488620261401843E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.788794105446566E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.8617905</v>
+      </c>
+      <c r="H22">
+        <v>15.723581</v>
+      </c>
+      <c r="I22">
+        <v>0.2132203368026377</v>
+      </c>
+      <c r="J22">
+        <v>0.1530227449399449</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.768073999999999</v>
+      </c>
+      <c r="N22">
+        <v>14.304222</v>
+      </c>
+      <c r="O22">
+        <v>0.5213599352042468</v>
+      </c>
+      <c r="P22">
+        <v>0.5361472681932758</v>
+      </c>
+      <c r="Q22">
+        <v>37.48559887649699</v>
+      </c>
+      <c r="R22">
+        <v>224.913593258982</v>
+      </c>
+      <c r="S22">
+        <v>0.1111645409796509</v>
+      </c>
+      <c r="T22">
+        <v>0.08204272667098786</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.8617905</v>
+      </c>
+      <c r="H23">
+        <v>15.723581</v>
+      </c>
+      <c r="I23">
+        <v>0.2132203368026377</v>
+      </c>
+      <c r="J23">
+        <v>0.1530227449399449</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.082852</v>
+      </c>
+      <c r="N23">
+        <v>9.248556000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.3370911439219029</v>
+      </c>
+      <c r="P23">
+        <v>0.3466520607784562</v>
+      </c>
+      <c r="Q23">
+        <v>24.236736566506</v>
+      </c>
+      <c r="R23">
+        <v>145.420419399036</v>
+      </c>
+      <c r="S23">
+        <v>0.07187468724021455</v>
+      </c>
+      <c r="T23">
+        <v>0.05304564987940797</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>7.86096660073365</v>
-      </c>
-      <c r="H16">
-        <v>7.86096660073365</v>
-      </c>
-      <c r="I16">
-        <v>0.2445205349649873</v>
-      </c>
-      <c r="J16">
-        <v>0.2445205349649873</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.738554335361319</v>
-      </c>
-      <c r="N16">
-        <v>0.738554335361319</v>
-      </c>
-      <c r="O16">
-        <v>0.1212610466162259</v>
-      </c>
-      <c r="P16">
-        <v>0.1212610466162259</v>
-      </c>
-      <c r="Q16">
-        <v>5.805750963102367</v>
-      </c>
-      <c r="R16">
-        <v>5.805750963102367</v>
-      </c>
-      <c r="S16">
-        <v>0.02965081598901382</v>
-      </c>
-      <c r="T16">
-        <v>0.02965081598901382</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.8617905</v>
+      </c>
+      <c r="H24">
+        <v>15.723581</v>
+      </c>
+      <c r="I24">
+        <v>0.2132203368026377</v>
+      </c>
+      <c r="J24">
+        <v>0.1530227449399449</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1813516666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.544055</v>
+      </c>
+      <c r="O24">
+        <v>0.01982970339439268</v>
+      </c>
+      <c r="P24">
+        <v>0.02039213331538707</v>
+      </c>
+      <c r="Q24">
+        <v>1.425748810159167</v>
+      </c>
+      <c r="R24">
+        <v>8.554492860955</v>
+      </c>
+      <c r="S24">
+        <v>0.004228096036448816</v>
+      </c>
+      <c r="T24">
+        <v>0.003120460215101828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.8617905</v>
+      </c>
+      <c r="H25">
+        <v>15.723581</v>
+      </c>
+      <c r="I25">
+        <v>0.2132203368026377</v>
+      </c>
+      <c r="J25">
+        <v>0.1530227449399449</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3564626666666666</v>
+      </c>
+      <c r="N25">
+        <v>1.069388</v>
+      </c>
+      <c r="O25">
+        <v>0.0389770277885927</v>
+      </c>
+      <c r="P25">
+        <v>0.04008253331349799</v>
+      </c>
+      <c r="Q25">
+        <v>2.802434806404666</v>
+      </c>
+      <c r="R25">
+        <v>16.814608838428</v>
+      </c>
+      <c r="S25">
+        <v>0.008310694992649505</v>
+      </c>
+      <c r="T25">
+        <v>0.006133539271778247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.8617905</v>
+      </c>
+      <c r="H26">
+        <v>15.723581</v>
+      </c>
+      <c r="I26">
+        <v>0.2132203368026377</v>
+      </c>
+      <c r="J26">
+        <v>0.1530227449399449</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.756715</v>
+      </c>
+      <c r="N26">
+        <v>1.51343</v>
+      </c>
+      <c r="O26">
+        <v>0.08274218969086504</v>
+      </c>
+      <c r="P26">
+        <v>0.05672600439938289</v>
+      </c>
+      <c r="Q26">
+        <v>5.9491347982075</v>
+      </c>
+      <c r="R26">
+        <v>23.79653919283</v>
+      </c>
+      <c r="S26">
+        <v>0.01764231755367398</v>
+      </c>
+      <c r="T26">
+        <v>0.008680368902668958</v>
       </c>
     </row>
   </sheetData>
